--- a/files/customers.xlsx
+++ b/files/customers.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
-  <si>
-    <t>Table 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>customerid</t>
   </si>
@@ -109,7 +106,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="d/m/yy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -121,13 +118,18 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +148,12 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -266,53 +274,50 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -336,6 +341,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -352,10 +358,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -532,11 +538,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:schemeClr val="accent1"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -545,27 +554,27 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
@@ -822,10 +831,10 @@
         <a:noFill/>
         <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1116,7 +1125,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1397,11 +1406,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:Q5"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="A3" xSplit="0" ySplit="2" activePane="bottomLeft" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1409,225 +1416,201 @@
     <col min="18" max="256" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
+    <row r="1" ht="20.25" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" ht="32.25" customHeight="1">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" t="s" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s" s="5">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s" s="5">
+        <v>19</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" t="s" s="5">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s" s="5">
+        <v>21</v>
+      </c>
+      <c r="H2" s="7">
+        <v>90040</v>
+      </c>
+      <c r="I2" t="s" s="5">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" t="s" s="5">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s" s="5">
+        <v>25</v>
+      </c>
+      <c r="O2" t="s" s="5">
+        <v>26</v>
+      </c>
+      <c r="P2" t="s" s="5">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>41923</v>
+      </c>
+    </row>
+    <row r="3" ht="32.05" customHeight="1">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s" s="3">
-        <v>10</v>
-      </c>
-      <c r="K2" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="L2" t="s" s="3">
-        <v>12</v>
-      </c>
-      <c r="M2" t="s" s="3">
-        <v>13</v>
-      </c>
-      <c r="N2" t="s" s="3">
-        <v>14</v>
-      </c>
-      <c r="O2" t="s" s="3">
-        <v>15</v>
-      </c>
-      <c r="P2" t="s" s="3">
-        <v>16</v>
-      </c>
-      <c r="Q2" t="s" s="3">
+      <c r="B3" t="s" s="10">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" ht="32.25" customHeight="1">
-      <c r="A3" s="4">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s" s="5">
+      <c r="C3" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="D3" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="D3" t="s" s="6">
+      <c r="E3" s="12"/>
+      <c r="F3" t="s" s="11">
         <v>20</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" t="s" s="6">
+      <c r="G3" t="s" s="11">
         <v>21</v>
       </c>
-      <c r="G3" t="s" s="6">
+      <c r="H3" s="13">
+        <v>90040</v>
+      </c>
+      <c r="I3" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="H3" s="8">
-        <v>90040</v>
-      </c>
-      <c r="I3" t="s" s="6">
+      <c r="J3" t="s" s="11">
         <v>23</v>
       </c>
-      <c r="J3" t="s" s="6">
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" t="s" s="11">
         <v>24</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" t="s" s="6">
+      <c r="N3" t="s" s="11">
         <v>25</v>
       </c>
-      <c r="N3" t="s" s="6">
+      <c r="O3" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="O3" t="s" s="6">
+      <c r="P3" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="P3" t="s" s="6">
-        <v>28</v>
-      </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="14">
         <v>41923</v>
       </c>
     </row>
     <row r="4" ht="32.05" customHeight="1">
-      <c r="A4" s="10">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s" s="11">
+      <c r="A4" s="9">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s" s="10">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="C4" t="s" s="12">
+      <c r="D4" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="D4" t="s" s="12">
+      <c r="E4" s="12"/>
+      <c r="F4" t="s" s="11">
         <v>20</v>
       </c>
-      <c r="E4" s="13"/>
-      <c r="F4" t="s" s="12">
+      <c r="G4" t="s" s="11">
         <v>21</v>
       </c>
-      <c r="G4" t="s" s="12">
+      <c r="H4" s="13">
+        <v>90040</v>
+      </c>
+      <c r="I4" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="H4" s="14">
-        <v>90040</v>
-      </c>
-      <c r="I4" t="s" s="12">
+      <c r="J4" t="s" s="11">
         <v>23</v>
       </c>
-      <c r="J4" t="s" s="12">
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" t="s" s="11">
         <v>24</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" t="s" s="12">
+      <c r="N4" t="s" s="11">
         <v>25</v>
       </c>
-      <c r="N4" t="s" s="12">
+      <c r="O4" t="s" s="11">
         <v>26</v>
       </c>
-      <c r="O4" t="s" s="12">
+      <c r="P4" t="s" s="11">
         <v>27</v>
       </c>
-      <c r="P4" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="Q4" s="15">
-        <v>41923</v>
-      </c>
-    </row>
-    <row r="5" ht="32.05" customHeight="1">
-      <c r="A5" s="10">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s" s="11">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="H5" s="14">
-        <v>90040</v>
-      </c>
-      <c r="I5" t="s" s="12">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="O5" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="P5" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="15">
+      <c r="Q4" s="14">
         <v>41923</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:Q1"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
